--- a/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/2 Доверительные интервалы для среднего.xlsx
+++ b/Теория вероятностей. Решение задач/6 Точечное и доверительное оценивание/2 Доверительные интервалы для среднего.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\Theory-of-possibilities\Теория вероятностей. Решение задач\6 Точечное и доверительное оценивание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F02A8-C2B7-4E57-89A4-CA729755864C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6990AB60-6496-47C3-9970-3A9CB8700799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Задание 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Задание 1" sheetId="2" r:id="rId1"/>
+    <sheet name="План освоения темы" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,19 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>https://ithub.bulgakov.app/lessons/33835</t>
-  </si>
-  <si>
-    <t>Статья темы на Булгакове</t>
-  </si>
-  <si>
-    <t>В этой теме много практики -</t>
-  </si>
-  <si>
-    <t>я хочу хорошо разобраться</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Номер 1</t>
   </si>
@@ -80,13 +68,64 @@
   </si>
   <si>
     <t>Доверительный уровень этого интервала α = ?</t>
+  </si>
+  <si>
+    <t>План освоения темы</t>
+  </si>
+  <si>
+    <t>Тема включает в себя подтемы:</t>
+  </si>
+  <si>
+    <t>1) Доверительный интервал для среднего при известной дисперсии</t>
+  </si>
+  <si>
+    <t>2) Распределение Стьюдента</t>
+  </si>
+  <si>
+    <t>3) Доверительный интервал для среднего при известной дисперсии</t>
+  </si>
+  <si>
+    <t>4) Построение доверительного интервала</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Каждая подтема представлена отдельным заданием на Булгакове</t>
+  </si>
+  <si>
+    <t>Буду осваивать поэтапно</t>
+  </si>
+  <si>
+    <t>1) Решу задачу 1 в Задании 1</t>
+  </si>
+  <si>
+    <t>Буду использовать записи Мелании как опору.</t>
+  </si>
+  <si>
+    <t>Задам вопросы, чтобы понять до конца</t>
+  </si>
+  <si>
+    <t>2) Затем выполняю все упражнения в задании 1 и 3, т.к. они на эту же тему</t>
+  </si>
+  <si>
+    <t>3) Затем выполнаю упражнения в задании 4.</t>
+  </si>
+  <si>
+    <t>Оно является обязательным.</t>
+  </si>
+  <si>
+    <t>Альфа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +133,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,8 +169,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -138,16 +198,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>94300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9138</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>434478</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>115293</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -170,8 +230,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5295900" y="152400"/>
-          <a:ext cx="7600000" cy="3095238"/>
+          <a:off x="7320643" y="13607"/>
+          <a:ext cx="6829835" cy="2768686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>236528</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF64C398-9572-42BC-96BE-382F13FF61BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10654393" y="3634249"/>
+          <a:ext cx="11258314" cy="8408072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>608076</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>189357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{441AB9BF-A785-4FA7-896A-BF5A754D3FE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10654393" y="12192000"/>
+          <a:ext cx="12242183" cy="9142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -445,47 +593,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653B4BAF-A073-4F1E-905C-271F18E2E13E}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,57 +607,168 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECFD171-31BB-4B67-A2C2-C632C2DF6CDE}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>1.9319999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3">
+        <f>_xlfn.NORM.S.DIST(D17,1)</f>
+        <v>0.97332024706086984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4">
+        <f>D18-(1-D18)</f>
+        <v>0.94664049412173967</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>